--- a/data/trans_dic/LAWTONB_2R2-Clase-trans_dic.xlsx
+++ b/data/trans_dic/LAWTONB_2R2-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>9,9; 31,17</t>
+          <t>10,24; 33,12</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>9,31; 37,68</t>
+          <t>8,6; 36,25</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,75; 19,61</t>
+          <t>4,47; 20,18</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>7,08; 17,36</t>
+          <t>7,57; 17,01</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>27,68; 63,3</t>
+          <t>27,37; 61,87</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>3,98; 33,05</t>
+          <t>3,93; 31,7</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>12,18; 45,18</t>
+          <t>11,31; 46,83</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>16,33; 32,35</t>
+          <t>16,1; 32,15</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>19,36; 38,88</t>
+          <t>18,22; 38,23</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>8,27; 29,19</t>
+          <t>9,09; 29,44</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>8,73; 24,87</t>
+          <t>8,91; 24,32</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>12,16; 20,8</t>
+          <t>11,66; 20,24</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>12,55; 38,72</t>
+          <t>12,0; 36,57</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>7,17; 29,82</t>
+          <t>6,75; 28,34</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>11,59; 32,6</t>
+          <t>10,45; 31,06</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>11,76; 25,15</t>
+          <t>11,92; 24,82</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>13,37; 60,57</t>
+          <t>13,61; 62,14</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>21,51; 70,92</t>
+          <t>22,59; 70,37</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>19,89; 73,25</t>
+          <t>20,55; 74,51</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>21,7; 41,18</t>
+          <t>21,71; 40,61</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>16,01; 37,42</t>
+          <t>15,64; 37,62</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>14,17; 35,03</t>
+          <t>14,06; 34,93</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>16,74; 37,03</t>
+          <t>17,22; 38,05</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>16,99; 27,31</t>
+          <t>16,43; 26,94</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>17,93; 37,33</t>
+          <t>17,57; 37,45</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>14,62; 32,57</t>
+          <t>14,46; 31,52</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>8,61; 20,36</t>
+          <t>8,22; 20,72</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>13,57; 26,17</t>
+          <t>14,07; 26,08</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>17,04; 55,79</t>
+          <t>15,47; 55,51</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>23,34; 50,26</t>
+          <t>23,19; 48,63</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>20,24; 51,53</t>
+          <t>21,48; 52,3</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>32,32; 50,81</t>
+          <t>32,24; 50,99</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>20,33; 37,82</t>
+          <t>19,18; 37,33</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>19,44; 33,9</t>
+          <t>19,78; 34,4</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>14,34; 26,62</t>
+          <t>13,68; 26,23</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>20,99; 32,24</t>
+          <t>21,01; 32,03</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>23,07; 33,73</t>
+          <t>22,85; 33,46</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>24,1; 37,02</t>
+          <t>23,8; 36,46</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>14,78; 25,89</t>
+          <t>15,46; 26,37</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>28,41; 38,35</t>
+          <t>28,41; 38,68</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>20,14; 39,03</t>
+          <t>18,74; 38,54</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>28,02; 53,27</t>
+          <t>26,74; 52,32</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>24,99; 46,88</t>
+          <t>24,1; 44,87</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>3,17; 33,37</t>
+          <t>2,91; 33,08</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>23,17; 32,12</t>
+          <t>23,46; 32,68</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>26,45; 37,43</t>
+          <t>26,75; 38,01</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>19,49; 30,01</t>
+          <t>20,35; 30,65</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>8,06; 33,99</t>
+          <t>8,16; 33,94</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>19,55; 42,07</t>
+          <t>20,16; 43,79</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>25,22; 44,61</t>
+          <t>25,84; 44,85</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>26,44; 41,24</t>
+          <t>26,28; 41,07</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>27,4; 43,42</t>
+          <t>27,2; 42,97</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>27,84; 48,76</t>
+          <t>27,35; 48,48</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>37,7; 52,18</t>
+          <t>38,12; 52,34</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>26,71; 43,13</t>
+          <t>26,65; 43,2</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>43,82; 53,08</t>
+          <t>43,43; 52,77</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>27,24; 43,06</t>
+          <t>27,76; 43,07</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>35,35; 47,56</t>
+          <t>35,71; 46,85</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>28,46; 39,83</t>
+          <t>28,91; 39,84</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>39,89; 48,11</t>
+          <t>40,25; 48,37</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1440,47 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>17,64; 100,0</t>
+          <t>30,83; 100,0</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>29,4; 38,82</t>
+          <t>29,18; 38,48</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>32,74; 41,96</t>
+          <t>32,07; 42,22</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>31,18; 41,8</t>
+          <t>31,42; 41,84</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>41,99; 49,96</t>
+          <t>41,78; 49,76</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>29,33; 39,33</t>
+          <t>29,44; 38,64</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>32,2; 41,99</t>
+          <t>32,18; 42,13</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>31,18; 41,8</t>
+          <t>31,42; 41,84</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>42,24; 50,21</t>
+          <t>41,88; 49,87</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>22,66; 30,46</t>
+          <t>22,91; 30,11</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>22,85; 30,85</t>
+          <t>23,08; 31,0</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>17,9; 24,19</t>
+          <t>17,94; 24,15</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>22,63; 28,06</t>
+          <t>22,84; 28,3</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>30,92; 38,41</t>
+          <t>30,72; 38,03</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>34,54; 41,99</t>
+          <t>34,74; 42,33</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>31,74; 39,12</t>
+          <t>31,9; 39,45</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>17,78; 41,96</t>
+          <t>18,51; 42,27</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>28,57; 33,73</t>
+          <t>28,19; 33,63</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>30,76; 36,12</t>
+          <t>30,82; 36,06</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>26,72; 31,87</t>
+          <t>26,59; 31,81</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>20,5; 35,06</t>
+          <t>19,65; 35,07</t>
         </is>
       </c>
     </row>
@@ -1646,4 +1647,1630 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con algún grado de dependencia funcional para actividades instrumentales de la vida diaria (Lawton y Brody)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>11569</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>8400</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>7028</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>12057</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>13367</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>3261</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>9420</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>15228</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>24935</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>11661</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>16449</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>27285</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>6122; 19799</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>3778; 15919</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>3071; 13854</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>8056; 18103</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>8132; 18379</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>993; 8017</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>4174; 17276</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>10515; 20999</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>16307; 34210</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>6289; 20376</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>9405; 25662</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>20031; 34766</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>11633</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>9510</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>10754</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>16827</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>5353</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>8808</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>8058</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>14268</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>16986</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>18318</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>18812</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>31095</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>6102; 18587</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>4092; 17184</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>5576; 16570</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>11323; 23576</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>2148; 9810</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>4270; 13301</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>3614; 13105</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>10187; 19057</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>10417; 25063</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>11185; 27783</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>12218; 26987</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>23317; 38235</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>18865</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>26458</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>16483</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>19615</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>8320</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>19001</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>16300</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>21494</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>27186</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>45459</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>32783</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>41110</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>12605; 26870</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>17159; 37404</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>9884; 24918</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>14275; 26465</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>3756; 13476</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>12664; 26560</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>9927; 24168</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>16690; 26395</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>18421; 35848</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>34270; 59598</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>22777; 43658</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>32198; 49085</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>205</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>72312</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>69557</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>41779</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>78757</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>24379</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>23843</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>34201</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>38691</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>96691</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>93400</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>75981</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>117448</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>59438; 87031</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>55157; 84490</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>31518; 53749</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>66967; 91174</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>16069; 33049</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>16067; 31439</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>23872; 44441</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>9522; 108075</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>81115; 113018</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>78072; 110924</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>61639; 92834</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>45867; 190907</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>217</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>274</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>16914</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>36032</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>48299</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>31418</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>36414</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>84558</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>55072</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>98262</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>53328</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>120590</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>103371</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>129680</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>11182; 24288</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>26534; 46056</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>38166; 59646</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>24597; 38863</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>26327; 46667</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>71820; 98604</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>42528; 68921</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>88336; 107345</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>42123; 65348</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>103940; 136392</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>88122; 121427</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>118265; 142140</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>285</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>289</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>914</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>2145</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>144912</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>146177</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>151255</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>146840</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>145826</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>146177</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>151255</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>148985</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>0; 3645</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1132</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>988; 3204</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>124026; 163576</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>126599; 166641</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>129782; 172826</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>133630; 159150</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>126215; 165674</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>127636; 167140</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>129782; 172826</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>135291; 161111</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>139</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>133</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>139</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>264</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>217</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>262</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>220</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>684</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>356</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>395</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>359</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>948</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>132209</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>149957</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>124343</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>160818</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>232744</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>285649</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>274307</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>334785</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>364953</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>435605</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>398650</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>495602</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>114906; 151020</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>129139; 173471</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>106103; 142797</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>144382; 178926</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>207894; 257407</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>257808; 314067</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>246395; 304693</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>187639; 428629</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>332138; 396332</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>401207; 469412</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>362576; 433744</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>323424; 577291</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/LAWTONB_2R2-Clase-trans_dic.xlsx
+++ b/data/trans_dic/LAWTONB_2R2-Clase-trans_dic.xlsx
@@ -1347,7 +1347,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -2837,7 +2837,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
